--- a/스터디_결과_보고서/3월 스터디 활동 결과보고서_부울경_2반_성제현.xlsx
+++ b/스터디_결과_보고서/3월 스터디 활동 결과보고서_부울경_2반_성제현.xlsx
@@ -876,6 +876,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -894,9 +951,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,24 +969,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -971,42 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,44 +1422,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2694214</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12668250"/>
-          <a:ext cx="3415393" cy="3156857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2694214</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -1479,7 +1441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1517,7 +1479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1555,7 +1517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1593,7 +1555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1631,7 +1593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1669,7 +1631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1707,7 +1669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1745,7 +1707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1783,7 +1745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1821,7 +1783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1859,7 +1821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1897,7 +1859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1935,7 +1897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1973,7 +1935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2011,7 +1973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2044,8 +2006,46 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="48" name="그림 47">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17376321" y="7371125"/>
+          <a:ext cx="2381250" cy="305970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2690812</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2058,8 +2058,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17376321" y="7371125"/>
-          <a:ext cx="2381250" cy="305970"/>
+          <a:off x="0" y="12513468"/>
+          <a:ext cx="3405187" cy="3000376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,8 +2361,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2388,28 +2388,28 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="F3" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="P3" s="28" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="P3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="30"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2424,38 +2424,38 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2469,20 +2469,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2492,20 +2492,20 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -2515,20 +2515,20 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2538,20 +2538,20 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
       <c r="P9" s="27" t="s">
         <v>18</v>
       </c>
@@ -2561,81 +2561,81 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
     </row>
     <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -2974,8 +2974,8 @@
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="17"/>
       <c r="D31" s="22"/>
       <c r="E31" s="10"/>
@@ -3019,55 +3019,55 @@
       <c r="A33" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="65" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="70" t="s">
+      <c r="P33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="30"/>
     </row>
     <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="46"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="30"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
@@ -3452,14 +3452,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P33:S34"/>
-    <mergeCell ref="A12:S12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="P3:S4"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:D14"/>
@@ -3474,6 +3466,14 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="P33:S34"/>
+    <mergeCell ref="A12:S12"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
